--- a/data/pca/factorExposure/factorExposure_2010-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-08.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003814333913091998</v>
+        <v>0.01684401055340732</v>
       </c>
       <c r="C2">
-        <v>-0.01646158028474535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001222529397201974</v>
+      </c>
+      <c r="D2">
+        <v>-0.006041996399491905</v>
+      </c>
+      <c r="E2">
+        <v>0.0002796086347980916</v>
+      </c>
+      <c r="F2">
+        <v>-0.01125921606246598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.02929050551652172</v>
+        <v>0.09427681180373351</v>
       </c>
       <c r="C4">
-        <v>-0.1268565162475251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01573294846102129</v>
+      </c>
+      <c r="D4">
+        <v>-0.08413184964077335</v>
+      </c>
+      <c r="E4">
+        <v>-0.02883921233751468</v>
+      </c>
+      <c r="F4">
+        <v>0.03156315493204376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03651063747701583</v>
+        <v>0.1570678802617758</v>
       </c>
       <c r="C6">
-        <v>-0.1101323079589429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02537070389099631</v>
+      </c>
+      <c r="D6">
+        <v>0.02321900460692213</v>
+      </c>
+      <c r="E6">
+        <v>-0.00940775760014239</v>
+      </c>
+      <c r="F6">
+        <v>0.04556615269007785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009641474100623377</v>
+        <v>0.06186209802560767</v>
       </c>
       <c r="C7">
-        <v>-0.07723358198778162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008049840046505226</v>
+      </c>
+      <c r="D7">
+        <v>-0.05135986308110743</v>
+      </c>
+      <c r="E7">
+        <v>-0.009721020326939929</v>
+      </c>
+      <c r="F7">
+        <v>0.04547902687587962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00325170144674329</v>
+        <v>0.05754530532138427</v>
       </c>
       <c r="C8">
-        <v>-0.05901689069078199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01338897162026334</v>
+      </c>
+      <c r="D8">
+        <v>-0.03351913146111266</v>
+      </c>
+      <c r="E8">
+        <v>-0.01762363436760335</v>
+      </c>
+      <c r="F8">
+        <v>-0.02816880287151575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02450208372343998</v>
+        <v>0.07173452276853645</v>
       </c>
       <c r="C9">
-        <v>-0.1034785570153703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01163775768258853</v>
+      </c>
+      <c r="D9">
+        <v>-0.08596912571218729</v>
+      </c>
+      <c r="E9">
+        <v>-0.02339512965695758</v>
+      </c>
+      <c r="F9">
+        <v>0.0475497547860003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01083347911964482</v>
+        <v>0.09424572513022764</v>
       </c>
       <c r="C10">
-        <v>-0.01880726175089299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0194451854832516</v>
+      </c>
+      <c r="D10">
+        <v>0.1706174129993612</v>
+      </c>
+      <c r="E10">
+        <v>0.03696462479952468</v>
+      </c>
+      <c r="F10">
+        <v>-0.05405362762056731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02860258355464635</v>
+        <v>0.08798751770653644</v>
       </c>
       <c r="C11">
-        <v>-0.1116110816661549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01110917993426063</v>
+      </c>
+      <c r="D11">
+        <v>-0.1162379108156268</v>
+      </c>
+      <c r="E11">
+        <v>-0.04622951490662294</v>
+      </c>
+      <c r="F11">
+        <v>0.02130395344995489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02603109213166547</v>
+        <v>0.09182203304075742</v>
       </c>
       <c r="C12">
-        <v>-0.1215016771664046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008185749012472378</v>
+      </c>
+      <c r="D12">
+        <v>-0.1319383203644077</v>
+      </c>
+      <c r="E12">
+        <v>-0.04733986883960952</v>
+      </c>
+      <c r="F12">
+        <v>0.02539240341808357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.009018762753464554</v>
+        <v>0.04238452533059642</v>
       </c>
       <c r="C13">
-        <v>-0.04286531640903364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003633167200347084</v>
+      </c>
+      <c r="D13">
+        <v>-0.05100251773813418</v>
+      </c>
+      <c r="E13">
+        <v>0.01000903547369011</v>
+      </c>
+      <c r="F13">
+        <v>0.00250016156088359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01611621502030879</v>
+        <v>0.02315244768734307</v>
       </c>
       <c r="C14">
-        <v>-0.02634272112981581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0140006004960328</v>
+      </c>
+      <c r="D14">
+        <v>-0.03334721511235619</v>
+      </c>
+      <c r="E14">
+        <v>-0.01665466752319483</v>
+      </c>
+      <c r="F14">
+        <v>0.01481139377993881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01016903402705458</v>
+        <v>0.0316621899896059</v>
       </c>
       <c r="C15">
-        <v>-0.02865288859173139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005033820554832463</v>
+      </c>
+      <c r="D15">
+        <v>-0.04519331935207625</v>
+      </c>
+      <c r="E15">
+        <v>-0.006153745045598452</v>
+      </c>
+      <c r="F15">
+        <v>0.02235684325933413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01792860852997293</v>
+        <v>0.07351340249293155</v>
       </c>
       <c r="C16">
-        <v>-0.1145714512249625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002155464109896997</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261457314741585</v>
+      </c>
+      <c r="E16">
+        <v>-0.06121432863131927</v>
+      </c>
+      <c r="F16">
+        <v>0.02446477582414637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02983479015775917</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003436741095452032</v>
+      </c>
+      <c r="D18">
+        <v>-0.01961190675678152</v>
+      </c>
+      <c r="E18">
+        <v>0.007610245499275316</v>
+      </c>
+      <c r="F18">
+        <v>-0.003267386779035544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01130144616809184</v>
+        <v>0.06090230759259168</v>
       </c>
       <c r="C20">
-        <v>-0.06836260557064451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0007041955532354506</v>
+      </c>
+      <c r="D20">
+        <v>-0.07677013903844947</v>
+      </c>
+      <c r="E20">
+        <v>-0.05537985165054465</v>
+      </c>
+      <c r="F20">
+        <v>0.0229732411689596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01244797826653868</v>
+        <v>0.039880340091948</v>
       </c>
       <c r="C21">
-        <v>-0.02258645078802061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006657959472689569</v>
+      </c>
+      <c r="D21">
+        <v>-0.03688830871982736</v>
+      </c>
+      <c r="E21">
+        <v>0.006064389081094006</v>
+      </c>
+      <c r="F21">
+        <v>-0.0254480731900423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.004115980984690125</v>
+        <v>0.04292285521834317</v>
       </c>
       <c r="C22">
-        <v>-0.02774714626112171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.001077506044961213</v>
+      </c>
+      <c r="D22">
+        <v>-0.002797648165506439</v>
+      </c>
+      <c r="E22">
+        <v>-0.02841660885434714</v>
+      </c>
+      <c r="F22">
+        <v>-0.03281172407835865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.004104403670545964</v>
+        <v>0.04290796442196752</v>
       </c>
       <c r="C23">
-        <v>-0.02768184854224441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.001073215252182184</v>
+      </c>
+      <c r="D23">
+        <v>-0.002802760821706697</v>
+      </c>
+      <c r="E23">
+        <v>-0.02861792730155678</v>
+      </c>
+      <c r="F23">
+        <v>-0.03277622578476331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0181171693074727</v>
+        <v>0.08006690140563769</v>
       </c>
       <c r="C24">
-        <v>-0.1175401696633234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002751472575215151</v>
+      </c>
+      <c r="D24">
+        <v>-0.120249493085016</v>
+      </c>
+      <c r="E24">
+        <v>-0.04951232835984447</v>
+      </c>
+      <c r="F24">
+        <v>0.02535385921672808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02339498035680232</v>
+        <v>0.08492844227871729</v>
       </c>
       <c r="C25">
-        <v>-0.1212446665176398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.00489502820541252</v>
+      </c>
+      <c r="D25">
+        <v>-0.1090320154824811</v>
+      </c>
+      <c r="E25">
+        <v>-0.03239265784253923</v>
+      </c>
+      <c r="F25">
+        <v>0.02645874904663252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02329127922397124</v>
+        <v>0.05782426364476069</v>
       </c>
       <c r="C26">
-        <v>-0.05265849186329614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01466081696465693</v>
+      </c>
+      <c r="D26">
+        <v>-0.04035950136819778</v>
+      </c>
+      <c r="E26">
+        <v>-0.02730625491575819</v>
+      </c>
+      <c r="F26">
+        <v>-0.009754286233504293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.003595453663701677</v>
+        <v>0.1416136191582146</v>
       </c>
       <c r="C28">
-        <v>-0.01533175963199254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01879050905358169</v>
+      </c>
+      <c r="D28">
+        <v>0.2635967514111378</v>
+      </c>
+      <c r="E28">
+        <v>0.06760240766614858</v>
+      </c>
+      <c r="F28">
+        <v>0.008809760512518658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01287374308907036</v>
+        <v>0.02715429818096386</v>
       </c>
       <c r="C29">
-        <v>-0.03084806969350479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008167274725326515</v>
+      </c>
+      <c r="D29">
+        <v>-0.03280140786877159</v>
+      </c>
+      <c r="E29">
+        <v>-0.01106299000046033</v>
+      </c>
+      <c r="F29">
+        <v>-0.01044179800353356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01497967729166071</v>
+        <v>0.06270129407328226</v>
       </c>
       <c r="C30">
-        <v>-0.1280740436204565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004209487686105699</v>
+      </c>
+      <c r="D30">
+        <v>-0.08656425445650644</v>
+      </c>
+      <c r="E30">
+        <v>-0.02028306409134215</v>
+      </c>
+      <c r="F30">
+        <v>0.0818857242876613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02149767750967834</v>
+        <v>0.04970124327663697</v>
       </c>
       <c r="C31">
-        <v>-0.03814896459727414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01521068921235161</v>
+      </c>
+      <c r="D31">
+        <v>-0.02505847755443082</v>
+      </c>
+      <c r="E31">
+        <v>-0.02727380650661916</v>
+      </c>
+      <c r="F31">
+        <v>-0.002249240462214534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006400335303427088</v>
+        <v>0.04946627340489596</v>
       </c>
       <c r="C32">
-        <v>-0.0555693459481312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001330148915783006</v>
+      </c>
+      <c r="D32">
+        <v>-0.03616561732881184</v>
+      </c>
+      <c r="E32">
+        <v>-0.03046649426784651</v>
+      </c>
+      <c r="F32">
+        <v>0.001199656164838821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02179174464183725</v>
+        <v>0.08999029799262198</v>
       </c>
       <c r="C33">
-        <v>-0.1155914649939714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008334192557190581</v>
+      </c>
+      <c r="D33">
+        <v>-0.09857079906055229</v>
+      </c>
+      <c r="E33">
+        <v>-0.04488067590156822</v>
+      </c>
+      <c r="F33">
+        <v>0.03469052423000042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02544674535547529</v>
+        <v>0.06795099631814598</v>
       </c>
       <c r="C34">
-        <v>-0.0991694522225257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01134541881821048</v>
+      </c>
+      <c r="D34">
+        <v>-0.1065715840371216</v>
+      </c>
+      <c r="E34">
+        <v>-0.03448515110248334</v>
+      </c>
+      <c r="F34">
+        <v>0.03360322303193468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003739842389070238</v>
+        <v>0.02352896549797147</v>
       </c>
       <c r="C35">
-        <v>-0.01601312214153908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00237413172486929</v>
+      </c>
+      <c r="D35">
+        <v>-0.01239445728096363</v>
+      </c>
+      <c r="E35">
+        <v>-0.01138323904113097</v>
+      </c>
+      <c r="F35">
+        <v>0.000873158429215854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01064821197979374</v>
+        <v>0.02630863628692775</v>
       </c>
       <c r="C36">
-        <v>-0.02989143396205006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007198634816065527</v>
+      </c>
+      <c r="D36">
+        <v>-0.03979474665181824</v>
+      </c>
+      <c r="E36">
+        <v>-0.01523318496952189</v>
+      </c>
+      <c r="F36">
+        <v>0.01528466246288125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0001552309424073967</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>5.734054621202229e-05</v>
+      </c>
+      <c r="D37">
+        <v>0.0004612658541950154</v>
+      </c>
+      <c r="E37">
+        <v>0.0002031579334523573</v>
+      </c>
+      <c r="F37">
+        <v>0.0004729903468650757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005114474098493243</v>
+        <v>0.001214569445280166</v>
       </c>
       <c r="C38">
-        <v>-0.003917027352536756</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0001692671948634599</v>
+      </c>
+      <c r="D38">
+        <v>-0.0008043260912434042</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009674596863739685</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007697387081967106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04095124902360464</v>
+        <v>0.1063772028906848</v>
       </c>
       <c r="C39">
-        <v>-0.1818190103326679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01662862528013562</v>
+      </c>
+      <c r="D39">
+        <v>-0.1537313313900895</v>
+      </c>
+      <c r="E39">
+        <v>-0.05912634759819239</v>
+      </c>
+      <c r="F39">
+        <v>0.02840943131751121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01126955667805471</v>
+        <v>0.04013770972503564</v>
       </c>
       <c r="C40">
-        <v>-0.01570531823622848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007235844137486284</v>
+      </c>
+      <c r="D40">
+        <v>-0.03141900854291264</v>
+      </c>
+      <c r="E40">
+        <v>-0.002474788625442449</v>
+      </c>
+      <c r="F40">
+        <v>-0.01573742837107436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01108242006039127</v>
+        <v>0.02697408210563522</v>
       </c>
       <c r="C41">
-        <v>-0.0211267359455115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006526839520727213</v>
+      </c>
+      <c r="D41">
+        <v>-0.01080928759144965</v>
+      </c>
+      <c r="E41">
+        <v>-0.01192726595044323</v>
+      </c>
+      <c r="F41">
+        <v>-0.005893844896434536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01300921364632092</v>
+        <v>0.04021790330753044</v>
       </c>
       <c r="C43">
-        <v>-0.02797305733053641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006738119571432837</v>
+      </c>
+      <c r="D43">
+        <v>-0.02066559500470951</v>
+      </c>
+      <c r="E43">
+        <v>-0.02477838952795754</v>
+      </c>
+      <c r="F43">
+        <v>-0.01189176443307474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03053168990264219</v>
+        <v>0.07799973919082283</v>
       </c>
       <c r="C44">
-        <v>-0.1382816673421258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02066436695277832</v>
+      </c>
+      <c r="D44">
+        <v>-0.09929449717829666</v>
+      </c>
+      <c r="E44">
+        <v>-0.06630156460868342</v>
+      </c>
+      <c r="F44">
+        <v>0.1533548397426011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005541310460509134</v>
+        <v>0.02339816990871325</v>
       </c>
       <c r="C46">
-        <v>-0.004521582181946836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003733166746809381</v>
+      </c>
+      <c r="D46">
+        <v>-0.01343922151170667</v>
+      </c>
+      <c r="E46">
+        <v>-0.0219750172463209</v>
+      </c>
+      <c r="F46">
+        <v>-0.00447734393282647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.009998777113063455</v>
+        <v>0.05005961076925607</v>
       </c>
       <c r="C47">
-        <v>-0.03538341879440077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003564599290920163</v>
+      </c>
+      <c r="D47">
+        <v>-0.01394377350910999</v>
+      </c>
+      <c r="E47">
+        <v>-0.02315541900979334</v>
+      </c>
+      <c r="F47">
+        <v>-0.03305608622767462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01150953389374665</v>
+        <v>0.04887187599885305</v>
       </c>
       <c r="C48">
-        <v>-0.050915016083086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002590288661907679</v>
+      </c>
+      <c r="D48">
+        <v>-0.05033041566273533</v>
+      </c>
+      <c r="E48">
+        <v>0.007142005495050027</v>
+      </c>
+      <c r="F48">
+        <v>0.009470895963434364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.03523778252060843</v>
+        <v>0.2000102363949054</v>
       </c>
       <c r="C49">
-        <v>-0.1979294409318248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01869137844084132</v>
+      </c>
+      <c r="D49">
+        <v>0.008517368635833317</v>
+      </c>
+      <c r="E49">
+        <v>-0.03148163023209546</v>
+      </c>
+      <c r="F49">
+        <v>0.03887654152147986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01809239919207352</v>
+        <v>0.05015100609152903</v>
       </c>
       <c r="C50">
-        <v>-0.04279923638541847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01118691346646957</v>
+      </c>
+      <c r="D50">
+        <v>-0.02361259731627382</v>
+      </c>
+      <c r="E50">
+        <v>-0.02917653407373787</v>
+      </c>
+      <c r="F50">
+        <v>0.008524804334512059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004576374427414815</v>
+        <v>0.000990506112329696</v>
       </c>
       <c r="C51">
-        <v>-0.002604458837405627</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0002892719243673545</v>
+      </c>
+      <c r="D51">
+        <v>0.0008190776506161375</v>
+      </c>
+      <c r="E51">
+        <v>-2.08541265325943e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003089952120330747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02896489260490961</v>
+        <v>0.1458097330692549</v>
       </c>
       <c r="C52">
-        <v>-0.1507334909933863</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01533618285640949</v>
+      </c>
+      <c r="D52">
+        <v>-0.04635144972912128</v>
+      </c>
+      <c r="E52">
+        <v>-0.02088925830727818</v>
+      </c>
+      <c r="F52">
+        <v>0.04083714661009513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.02998119938238789</v>
+        <v>0.1730470368206843</v>
       </c>
       <c r="C53">
-        <v>-0.1714294702475622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01865219116725246</v>
+      </c>
+      <c r="D53">
+        <v>-0.005834202345403145</v>
+      </c>
+      <c r="E53">
+        <v>-0.03219298874909179</v>
+      </c>
+      <c r="F53">
+        <v>0.07254003042673586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01519599473402117</v>
+        <v>0.02139243017700272</v>
       </c>
       <c r="C54">
-        <v>-0.04412825311062526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01256098928756602</v>
+      </c>
+      <c r="D54">
+        <v>-0.03425358845947389</v>
+      </c>
+      <c r="E54">
+        <v>-0.01709038931049007</v>
+      </c>
+      <c r="F54">
+        <v>-0.002840405760351235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02346727859752865</v>
+        <v>0.1139475719274275</v>
       </c>
       <c r="C55">
-        <v>-0.08600159385415924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01646179230420104</v>
+      </c>
+      <c r="D55">
+        <v>-0.009528249827187097</v>
+      </c>
+      <c r="E55">
+        <v>-0.02837196030741802</v>
+      </c>
+      <c r="F55">
+        <v>0.04696012921273651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03101392145726161</v>
+        <v>0.1776875304245151</v>
       </c>
       <c r="C56">
-        <v>-0.1637034638610511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0159719441142402</v>
+      </c>
+      <c r="D56">
+        <v>-0.001761539434412138</v>
+      </c>
+      <c r="E56">
+        <v>-0.03721540819163044</v>
+      </c>
+      <c r="F56">
+        <v>0.05131576894462273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01237977643799529</v>
+        <v>0.04641880560381033</v>
       </c>
       <c r="C58">
-        <v>-0.05028366962431294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001063496663844908</v>
+      </c>
+      <c r="D58">
+        <v>-0.06698097863607738</v>
+      </c>
+      <c r="E58">
+        <v>-0.02708152900880576</v>
+      </c>
+      <c r="F58">
+        <v>-0.03599215730430669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01076442601290152</v>
+        <v>0.1685404341297281</v>
       </c>
       <c r="C59">
-        <v>-0.06779471601460443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01956169436249828</v>
+      </c>
+      <c r="D59">
+        <v>0.2189731250618314</v>
+      </c>
+      <c r="E59">
+        <v>0.04351159167969716</v>
+      </c>
+      <c r="F59">
+        <v>-0.03535500224600872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02284230941811113</v>
+        <v>0.2328270608660293</v>
       </c>
       <c r="C60">
-        <v>-0.2736335055904754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002682163101732947</v>
+      </c>
+      <c r="D60">
+        <v>-0.04176755875128033</v>
+      </c>
+      <c r="E60">
+        <v>-0.01197301212912159</v>
+      </c>
+      <c r="F60">
+        <v>-0.005084960473761434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0286967088054407</v>
+        <v>0.08298263955483079</v>
       </c>
       <c r="C61">
-        <v>-0.1321640980839124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01262505554943826</v>
+      </c>
+      <c r="D61">
+        <v>-0.1156945050873082</v>
+      </c>
+      <c r="E61">
+        <v>-0.03859249639676703</v>
+      </c>
+      <c r="F61">
+        <v>0.01139879744497621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03289705482993648</v>
+        <v>0.1700425140991658</v>
       </c>
       <c r="C62">
-        <v>-0.1644977566477489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01932689490939599</v>
+      </c>
+      <c r="D62">
+        <v>-0.00776481513479153</v>
+      </c>
+      <c r="E62">
+        <v>-0.03576892644251238</v>
+      </c>
+      <c r="F62">
+        <v>0.03479964517796456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01136676159738009</v>
+        <v>0.04424631189034163</v>
       </c>
       <c r="C63">
-        <v>-0.05613002193146301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002407006416365803</v>
+      </c>
+      <c r="D63">
+        <v>-0.05782224452608963</v>
+      </c>
+      <c r="E63">
+        <v>-0.01991691692740618</v>
+      </c>
+      <c r="F63">
+        <v>0.005040283294932404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02222677240279846</v>
+        <v>0.110743147204072</v>
       </c>
       <c r="C64">
-        <v>-0.1003664451195818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01169212576663223</v>
+      </c>
+      <c r="D64">
+        <v>-0.04224751592235793</v>
+      </c>
+      <c r="E64">
+        <v>-0.02307357353397487</v>
+      </c>
+      <c r="F64">
+        <v>0.02631135016448772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.03671897977048955</v>
+        <v>0.1473259499926812</v>
       </c>
       <c r="C65">
-        <v>-0.1017335174318908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03231866692179733</v>
+      </c>
+      <c r="D65">
+        <v>0.04244831527851843</v>
+      </c>
+      <c r="E65">
+        <v>-0.003247778118084889</v>
+      </c>
+      <c r="F65">
+        <v>0.03855954562847205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.03967118043447888</v>
+        <v>0.1266049695808726</v>
       </c>
       <c r="C66">
-        <v>-0.2124813500809877</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01472866325325191</v>
+      </c>
+      <c r="D66">
+        <v>-0.1420442329972471</v>
+      </c>
+      <c r="E66">
+        <v>-0.06717250302033048</v>
+      </c>
+      <c r="F66">
+        <v>0.03085330080376624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01414307330575627</v>
+        <v>0.06166849829679934</v>
       </c>
       <c r="C67">
-        <v>-0.05879265814188075</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003199934192494995</v>
+      </c>
+      <c r="D67">
+        <v>-0.05643201274556132</v>
+      </c>
+      <c r="E67">
+        <v>-0.01818416517619115</v>
+      </c>
+      <c r="F67">
+        <v>-0.03322605304874576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01449589129684505</v>
+        <v>0.1169589175562844</v>
       </c>
       <c r="C68">
-        <v>-0.0132943195534344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02882367455568515</v>
+      </c>
+      <c r="D68">
+        <v>0.259781161087163</v>
+      </c>
+      <c r="E68">
+        <v>0.0859394882037498</v>
+      </c>
+      <c r="F68">
+        <v>0.005739200878958989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.005553702440260465</v>
+        <v>0.03957630174929273</v>
       </c>
       <c r="C69">
-        <v>-0.03265929917947298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001314743041924489</v>
+      </c>
+      <c r="D69">
+        <v>-0.007444378835580571</v>
+      </c>
+      <c r="E69">
+        <v>-0.02343700740084619</v>
+      </c>
+      <c r="F69">
+        <v>-0.001190135951724843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.001835417612881536</v>
+        <v>0.06411384711386289</v>
       </c>
       <c r="C70">
-        <v>-0.02738640337246773</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02814997988386447</v>
+      </c>
+      <c r="D70">
+        <v>-0.02568415096090367</v>
+      </c>
+      <c r="E70">
+        <v>0.0431760004320066</v>
+      </c>
+      <c r="F70">
+        <v>-0.185172638983033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01801445055050111</v>
+        <v>0.1363857543718583</v>
       </c>
       <c r="C71">
-        <v>-0.01500356781089415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03384134606324427</v>
+      </c>
+      <c r="D71">
+        <v>0.2740860311795549</v>
+      </c>
+      <c r="E71">
+        <v>0.09602221651223065</v>
+      </c>
+      <c r="F71">
+        <v>0.01202181062064685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03476086738128401</v>
+        <v>0.1414223397672317</v>
       </c>
       <c r="C72">
-        <v>-0.115629261451729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02585126105867976</v>
+      </c>
+      <c r="D72">
+        <v>0.0008891718014949251</v>
+      </c>
+      <c r="E72">
+        <v>-0.03910549869835205</v>
+      </c>
+      <c r="F72">
+        <v>0.03531211625099833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03201122489845036</v>
+        <v>0.2006829687127473</v>
       </c>
       <c r="C73">
-        <v>-0.2002330910614532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01296639106111355</v>
+      </c>
+      <c r="D73">
+        <v>-0.01604133218597125</v>
+      </c>
+      <c r="E73">
+        <v>-0.0649001291935562</v>
+      </c>
+      <c r="F73">
+        <v>0.03883639840305926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.01900727952564122</v>
+        <v>0.09500478472961373</v>
       </c>
       <c r="C74">
-        <v>-0.1151363841924736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01311088013276794</v>
+      </c>
+      <c r="D74">
+        <v>-0.01803525642851714</v>
+      </c>
+      <c r="E74">
+        <v>-0.04450955696595928</v>
+      </c>
+      <c r="F74">
+        <v>0.05674125086712661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04040360330909314</v>
+        <v>0.1286417459930674</v>
       </c>
       <c r="C75">
-        <v>-0.1363777266295073</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02756722260912463</v>
+      </c>
+      <c r="D75">
+        <v>-0.03057490554844109</v>
+      </c>
+      <c r="E75">
+        <v>-0.05902104767407419</v>
+      </c>
+      <c r="F75">
+        <v>0.01840154801838873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0004202336693908557</v>
+        <v>0.001112433013016028</v>
       </c>
       <c r="C76">
-        <v>-0.00359980955544902</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003036779660437675</v>
+      </c>
+      <c r="D76">
+        <v>0.0008387436282629351</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002211011347545542</v>
+      </c>
+      <c r="F76">
+        <v>0.001317086172276292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02412591853176621</v>
+        <v>0.08314887188410616</v>
       </c>
       <c r="C77">
-        <v>-0.1092182431207874</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008565132733341224</v>
+      </c>
+      <c r="D77">
+        <v>-0.113576349114532</v>
+      </c>
+      <c r="E77">
+        <v>-0.03741581474848381</v>
+      </c>
+      <c r="F77">
+        <v>0.02921928574591736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05248485624285806</v>
+        <v>0.1009819956718189</v>
       </c>
       <c r="C78">
-        <v>-0.1318206500077355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03942564640345186</v>
+      </c>
+      <c r="D78">
+        <v>-0.1165174887885</v>
+      </c>
+      <c r="E78">
+        <v>-0.07715128435714248</v>
+      </c>
+      <c r="F78">
+        <v>0.04609370429406221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.0348897275449995</v>
+        <v>0.164281848822386</v>
       </c>
       <c r="C79">
-        <v>-0.146041784468783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0221228212890064</v>
+      </c>
+      <c r="D79">
+        <v>-0.0159379704743377</v>
+      </c>
+      <c r="E79">
+        <v>-0.04690299580156249</v>
+      </c>
+      <c r="F79">
+        <v>0.01157994869863129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.008068065885050798</v>
+        <v>0.08202156101165449</v>
       </c>
       <c r="C80">
-        <v>-0.09450925519999154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0005879005597539707</v>
+      </c>
+      <c r="D80">
+        <v>-0.05710362983251124</v>
+      </c>
+      <c r="E80">
+        <v>-0.03611971493647823</v>
+      </c>
+      <c r="F80">
+        <v>-0.02460066078534269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04179705610083216</v>
+        <v>0.1225469636475172</v>
       </c>
       <c r="C81">
-        <v>-0.1489916737941699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03151222705528613</v>
+      </c>
+      <c r="D81">
+        <v>-0.01575343391501642</v>
+      </c>
+      <c r="E81">
+        <v>-0.0592144828596456</v>
+      </c>
+      <c r="F81">
+        <v>0.01709205490787339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03591093410338609</v>
+        <v>0.166487467578887</v>
       </c>
       <c r="C82">
-        <v>-0.1679944128849253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02385141911176635</v>
+      </c>
+      <c r="D82">
+        <v>-0.004086493665716473</v>
+      </c>
+      <c r="E82">
+        <v>-0.02880717361078396</v>
+      </c>
+      <c r="F82">
+        <v>0.08055308216132027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01785379282581234</v>
+        <v>0.06132345764395303</v>
       </c>
       <c r="C83">
-        <v>-0.07097072951672143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003293700605048862</v>
+      </c>
+      <c r="D83">
+        <v>-0.04980384645244743</v>
+      </c>
+      <c r="E83">
+        <v>-0.005726698966083856</v>
+      </c>
+      <c r="F83">
+        <v>-0.03252398054502598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02543633677610395</v>
+        <v>0.05775326997777405</v>
       </c>
       <c r="C84">
-        <v>-0.07514122815243052</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0109743101208575</v>
+      </c>
+      <c r="D84">
+        <v>-0.06573563328119848</v>
+      </c>
+      <c r="E84">
+        <v>-0.00768768255747458</v>
+      </c>
+      <c r="F84">
+        <v>0.004250742170310226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03654218144908467</v>
+        <v>0.1372884213277092</v>
       </c>
       <c r="C85">
-        <v>-0.1234177700068923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02746657875074719</v>
+      </c>
+      <c r="D85">
+        <v>-0.01169005337488185</v>
+      </c>
+      <c r="E85">
+        <v>-0.03982477347380572</v>
+      </c>
+      <c r="F85">
+        <v>0.04547566104186423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007030929841748725</v>
+        <v>0.09426822777115364</v>
       </c>
       <c r="C86">
-        <v>-0.09462190664371838</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006703761440165401</v>
+      </c>
+      <c r="D86">
+        <v>-0.04244272873973659</v>
+      </c>
+      <c r="E86">
+        <v>-0.2108852524249483</v>
+      </c>
+      <c r="F86">
+        <v>-0.9092554964528583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03780947240475936</v>
+        <v>0.09684195090430775</v>
       </c>
       <c r="C87">
-        <v>-0.1055740992223513</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02050439250106834</v>
+      </c>
+      <c r="D87">
+        <v>-0.09514562006952286</v>
+      </c>
+      <c r="E87">
+        <v>0.05200998273147322</v>
+      </c>
+      <c r="F87">
+        <v>0.05295439211583682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01241504977404648</v>
+        <v>0.0605844065091537</v>
       </c>
       <c r="C88">
-        <v>-0.05968029906661913</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002417466438243974</v>
+      </c>
+      <c r="D88">
+        <v>-0.05026394057811183</v>
+      </c>
+      <c r="E88">
+        <v>-0.02490805230278806</v>
+      </c>
+      <c r="F88">
+        <v>0.01289789290990087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0003565200140041175</v>
+        <v>0.1335898179101856</v>
       </c>
       <c r="C89">
-        <v>-0.03266610433416391</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0115460213150429</v>
+      </c>
+      <c r="D89">
+        <v>0.2524089169222304</v>
+      </c>
+      <c r="E89">
+        <v>0.09075512683656477</v>
+      </c>
+      <c r="F89">
+        <v>-0.007550934644344937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01685183418263719</v>
+        <v>0.1496557643044798</v>
       </c>
       <c r="C90">
-        <v>-0.01571488912477617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02961622459731255</v>
+      </c>
+      <c r="D90">
+        <v>0.2684553910992341</v>
+      </c>
+      <c r="E90">
+        <v>0.111043642592564</v>
+      </c>
+      <c r="F90">
+        <v>-0.00181699221536522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02212654669152064</v>
+        <v>0.120111045743309</v>
       </c>
       <c r="C91">
-        <v>-0.09466334910581962</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01838723352633211</v>
+      </c>
+      <c r="D91">
+        <v>0.01320834549394823</v>
+      </c>
+      <c r="E91">
+        <v>-0.05688292935564007</v>
+      </c>
+      <c r="F91">
+        <v>-0.002185970678534154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0008928354429833183</v>
+        <v>0.1478567161579532</v>
       </c>
       <c r="C92">
-        <v>-0.02777714956984338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02153610586976357</v>
+      </c>
+      <c r="D92">
+        <v>0.291306102474609</v>
+      </c>
+      <c r="E92">
+        <v>0.1003187425986014</v>
+      </c>
+      <c r="F92">
+        <v>-0.01361048390920082</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01301948085438718</v>
+        <v>0.1515349069007773</v>
       </c>
       <c r="C93">
-        <v>-0.02304424526593264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02554846149127212</v>
+      </c>
+      <c r="D93">
+        <v>0.2676148394666517</v>
+      </c>
+      <c r="E93">
+        <v>0.07723469149959307</v>
+      </c>
+      <c r="F93">
+        <v>0.003209491754899913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.03980724850347641</v>
+        <v>0.1315642480323557</v>
       </c>
       <c r="C94">
-        <v>-0.1591263969915672</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0245479820913914</v>
+      </c>
+      <c r="D94">
+        <v>-0.04294343150115148</v>
+      </c>
+      <c r="E94">
+        <v>-0.05831588243031738</v>
+      </c>
+      <c r="F94">
+        <v>0.03662870366880348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.0240409577276062</v>
+        <v>0.1261608642819185</v>
       </c>
       <c r="C95">
-        <v>-0.1470725033517586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004540628626927804</v>
+      </c>
+      <c r="D95">
+        <v>-0.09111401757607708</v>
+      </c>
+      <c r="E95">
+        <v>-0.04553591955830864</v>
+      </c>
+      <c r="F95">
+        <v>-0.007676670216780621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9776488275875677</v>
+        <v>0.104771543677763</v>
       </c>
       <c r="C96">
-        <v>-0.1905454901498827</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9879885151127562</v>
+      </c>
+      <c r="D96">
+        <v>0.04074411876070216</v>
+      </c>
+      <c r="E96">
+        <v>-0.05630859081764594</v>
+      </c>
+      <c r="F96">
+        <v>0.04285794984441814</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.003186796683932572</v>
+        <v>0.1916764997880216</v>
       </c>
       <c r="C97">
-        <v>-0.1704814115154326</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008429092890502863</v>
+      </c>
+      <c r="D97">
+        <v>0.01605466483227384</v>
+      </c>
+      <c r="E97">
+        <v>-0.01594423928089564</v>
+      </c>
+      <c r="F97">
+        <v>-0.09431927800077315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02332440693846202</v>
+        <v>0.2052608606182279</v>
       </c>
       <c r="C98">
-        <v>-0.1855188704864281</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007490684603668125</v>
+      </c>
+      <c r="D98">
+        <v>-0.009545316330535335</v>
+      </c>
+      <c r="E98">
+        <v>0.08463519546614311</v>
+      </c>
+      <c r="F98">
+        <v>-0.09558399385682705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003413919102141679</v>
+        <v>0.05604942023909927</v>
       </c>
       <c r="C99">
-        <v>-0.05584395962767386</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004517140043293853</v>
+      </c>
+      <c r="D99">
+        <v>-0.03930440263964829</v>
+      </c>
+      <c r="E99">
+        <v>-0.02340447821390008</v>
+      </c>
+      <c r="F99">
+        <v>0.001488014086807347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.003934416993590767</v>
+        <v>0.1267919292786596</v>
       </c>
       <c r="C100">
-        <v>-0.1667459829624733</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05288429495173717</v>
+      </c>
+      <c r="D100">
+        <v>-0.3442832690368989</v>
+      </c>
+      <c r="E100">
+        <v>0.8891313034600473</v>
+      </c>
+      <c r="F100">
+        <v>-0.137066379052999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01288743497802674</v>
+        <v>0.02706816338304064</v>
       </c>
       <c r="C101">
-        <v>-0.0308543925357015</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008175606183968254</v>
+      </c>
+      <c r="D101">
+        <v>-0.03250792511059872</v>
+      </c>
+      <c r="E101">
+        <v>-0.01050181574997286</v>
+      </c>
+      <c r="F101">
+        <v>-0.01171478819346375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
